--- a/doc/SCALLOP-INF1.xlsx
+++ b/doc/SCALLOP-INF1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inf\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A6D8B-8DC6-42F1-AB72-CEB700B50861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="465" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4272" yWindow="468" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>IMPROVE</t>
   </si>
@@ -493,12 +494,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Example)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -648,7 +652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -936,21 +940,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -962,7 +951,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1149,25 +1138,19 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
-    <cellStyle name="Normal 8" xfId="4"/>
-    <cellStyle name="Normal_GIANT_Tables_eks82908_cjw82908_eks83008" xfId="2"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 8" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_GIANT_Tables_eks82908_cjw82908_eks83008" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1444,29 +1427,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1507,7 +1490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1516,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1606,7 +1589,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +1605,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1646,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1685,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1701,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1717,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1768,7 +1751,7 @@
       </c>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1802,7 +1785,7 @@
       </c>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1801,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1858,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1915,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1949,7 @@
       </c>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1982,7 +1965,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +1981,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2063,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2087,7 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2126,26 +2109,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>96</v>
@@ -2154,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>97</v>
@@ -2163,19 +2146,19 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>99</v>
       </c>
@@ -2184,7 +2167,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="22" t="s">
         <v>101</v>
@@ -2193,7 +2176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
         <v>103</v>
@@ -2202,7 +2185,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="27" t="s">
         <v>104</v>
@@ -2211,7 +2194,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
         <v>106</v>
@@ -2220,7 +2203,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>108</v>
       </c>
@@ -2231,7 +2214,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="36" t="s">
         <v>110</v>
@@ -2240,21 +2223,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="37"/>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="39"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>113</v>
       </c>
@@ -2263,35 +2246,35 @@
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="44" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="46"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47"/>
       <c r="B19" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="48"/>
     </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
@@ -2300,35 +2283,35 @@
       </c>
       <c r="C20" s="49"/>
     </row>
-    <row r="21" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="50"/>
     </row>
-    <row r="22" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="51" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="38"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30"/>
       <c r="B24" s="52" t="s">
         <v>124</v>
       </c>
       <c r="C24" s="53"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>125</v>
       </c>
@@ -2337,45 +2320,45 @@
       </c>
       <c r="C25" s="53"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="53"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="53"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="53"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="54"/>
     </row>
-    <row r="32" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>131</v>
       </c>
@@ -2384,49 +2367,49 @@
       </c>
       <c r="C32" s="55"/>
     </row>
-    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C33" s="29"/>
     </row>
-    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C34" s="55"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="27" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="55"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C36" s="29"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="27" t="s">
         <v>137</v>
       </c>
       <c r="C37" s="29"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="57"/>
       <c r="B38" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C38" s="29"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="58" t="s">
         <v>139</v>
       </c>
@@ -2435,33 +2418,33 @@
       </c>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>141</v>
       </c>
       <c r="C40" s="60"/>
     </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="62" t="s">
         <v>142</v>
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="63"/>
     </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
         <v>143</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="66"/>
     </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="62"/>
       <c r="B43" s="62"/>
       <c r="C43" s="64"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>144</v>
       </c>
@@ -2470,124 +2453,70 @@
       </c>
       <c r="C44" s="67"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>155</v>
+      </c>
       <c r="B45" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="69"/>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="C45" s="68"/>
+    </row>
+    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C46" s="56"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="27" t="s">
         <v>148</v>
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C48" s="38"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="27" t="s">
         <v>150</v>
       </c>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="27" t="s">
         <v>151</v>
       </c>
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C51" s="61"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="70"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="69"/>
+    </row>
+    <row r="53" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="33"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="68"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="56"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="56"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="56"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="43"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="71"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="70"/>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/SCALLOP-INF1.xlsx
+++ b/doc/SCALLOP-INF1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inf\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhz22\INF\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A6D8B-8DC6-42F1-AB72-CEB700B50861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="468" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="465" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -424,9 +423,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>DATA ANALYSIS</t>
-  </si>
-  <si>
     <t>Trait transformation FASTING GLUCOSE</t>
   </si>
   <si>
@@ -497,12 +493,15 @@
   </si>
   <si>
     <t>(Example)</t>
+  </si>
+  <si>
+    <t>DATA ANALYSIS (Example)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1148,9 +1147,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 8" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_GIANT_Tables_eks82908_cjw82908_eks83008" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3" xfId="3"/>
+    <cellStyle name="Normal 8" xfId="4"/>
+    <cellStyle name="Normal_GIANT_Tables_eks82908_cjw82908_eks83008" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1427,29 +1426,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.8984375" customWidth="1"/>
-    <col min="2" max="2" width="37.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="16.3984375" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1515,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1589,7 +1588,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +1700,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1751,7 +1750,7 @@
       </c>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1785,7 +1784,7 @@
       </c>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1800,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1857,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1915,7 +1914,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1948,7 @@
       </c>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1964,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1981,7 +1980,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2109,26 +2108,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>96</v>
@@ -2137,28 +2136,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>99</v>
       </c>
@@ -2167,7 +2166,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="22" t="s">
         <v>101</v>
@@ -2176,16 +2175,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="27" t="s">
         <v>104</v>
@@ -2194,7 +2193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
         <v>106</v>
@@ -2203,7 +2202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>108</v>
       </c>
@@ -2211,33 +2210,33 @@
         <v>109</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="37"/>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="39"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>113</v>
       </c>
@@ -2246,35 +2245,35 @@
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="44" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="46"/>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="48"/>
     </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
@@ -2283,35 +2282,35 @@
       </c>
       <c r="C20" s="49"/>
     </row>
-    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="50"/>
     </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="51" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="38"/>
     </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="52" t="s">
         <v>124</v>
       </c>
       <c r="C24" s="53"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>125</v>
       </c>
@@ -2320,198 +2319,198 @@
       </c>
       <c r="C25" s="53"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="53"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="53"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="53"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="54"/>
     </row>
-    <row r="32" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="C32" s="55"/>
     </row>
-    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="29"/>
     </row>
-    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="55"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="55"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="29"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="29"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="29"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="B39" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>140</v>
-      </c>
       <c r="C39" s="59"/>
     </row>
-    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="C40" s="60"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="62" t="s">
-        <v>142</v>
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="63"/>
     </row>
-    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="66"/>
     </row>
-    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
       <c r="B43" s="62"/>
       <c r="C43" s="64"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="C44" s="67"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="67"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="C45" s="68"/>
     </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="56"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="38"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="25"/>
     </row>
-    <row r="51" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="61"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="69"/>
     </row>
-    <row r="53" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
         <v>130</v>

--- a/doc/SCALLOP-INF1.xlsx
+++ b/doc/SCALLOP-INF1.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhz22\INF\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="4272" yWindow="468" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="3" r:id="rId1"/>
+    <sheet name="Protein" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="247">
   <si>
     <t>INTERVAL</t>
   </si>
@@ -168,50 +174,608 @@
     <t>Acknowledgement</t>
   </si>
   <si>
-    <t>FASTING GLUCOSE MEASUREMENTS</t>
-  </si>
-  <si>
-    <t>Sample type</t>
-  </si>
-  <si>
-    <t>Fasting duration</t>
-  </si>
-  <si>
-    <t>Conversion to plasma glucose values                                (n.a./ no/ yes: factor used)</t>
-  </si>
-  <si>
-    <t>Original units</t>
-  </si>
-  <si>
-    <t>Conversion factor to mmol/l</t>
-  </si>
-  <si>
-    <t>Collection method</t>
-  </si>
-  <si>
-    <t>Assay</t>
-  </si>
-  <si>
-    <t>Reference (PMID)</t>
-  </si>
-  <si>
     <t>INTERVAL  Study</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(Example)</t>
-  </si>
-  <si>
     <t>DATA ANALYSIS (Example)</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>UniProt</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>OPG</t>
+  </si>
+  <si>
+    <t>O00300</t>
+  </si>
+  <si>
+    <t>CXCL11</t>
+  </si>
+  <si>
+    <t>O14625</t>
+  </si>
+  <si>
+    <t>TRANCE</t>
+  </si>
+  <si>
+    <t>O14788</t>
+  </si>
+  <si>
+    <t>AXIN1</t>
+  </si>
+  <si>
+    <t>O15169</t>
+  </si>
+  <si>
+    <t>CCL25</t>
+  </si>
+  <si>
+    <t>O15444</t>
+  </si>
+  <si>
+    <t>TWEAK</t>
+  </si>
+  <si>
+    <t>O43508</t>
+  </si>
+  <si>
+    <t>TNFSF14</t>
+  </si>
+  <si>
+    <t>O43557</t>
+  </si>
+  <si>
+    <t>STAMPB</t>
+  </si>
+  <si>
+    <t>O95630</t>
+  </si>
+  <si>
+    <t>FGF.19</t>
+  </si>
+  <si>
+    <t>O95750</t>
+  </si>
+  <si>
+    <t>IL.33</t>
+  </si>
+  <si>
+    <t>O95760</t>
+  </si>
+  <si>
+    <t>uPA</t>
+  </si>
+  <si>
+    <t>P00749</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>P00813</t>
+  </si>
+  <si>
+    <t>TGF.alpha</t>
+  </si>
+  <si>
+    <t>P01135</t>
+  </si>
+  <si>
+    <t>LAP.TGF.beta.1</t>
+  </si>
+  <si>
+    <t>P01137</t>
+  </si>
+  <si>
+    <t>Beta.NGF</t>
+  </si>
+  <si>
+    <t>P01138</t>
+  </si>
+  <si>
+    <t>TNFB</t>
+  </si>
+  <si>
+    <t>P01374</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>P01375</t>
+  </si>
+  <si>
+    <t>IFN.gamma</t>
+  </si>
+  <si>
+    <t>P01579</t>
+  </si>
+  <si>
+    <t>IL.1.alpha</t>
+  </si>
+  <si>
+    <t>P01583</t>
+  </si>
+  <si>
+    <t>CXCL10</t>
+  </si>
+  <si>
+    <t>P02778</t>
+  </si>
+  <si>
+    <t>MMP.1</t>
+  </si>
+  <si>
+    <t>P03956</t>
+  </si>
+  <si>
+    <t>IL.4</t>
+  </si>
+  <si>
+    <t>P05112</t>
+  </si>
+  <si>
+    <t>IL.5</t>
+  </si>
+  <si>
+    <t>P05113</t>
+  </si>
+  <si>
+    <t>IL.6</t>
+  </si>
+  <si>
+    <t>P05231</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>P06127</t>
+  </si>
+  <si>
+    <t>MMP.10</t>
+  </si>
+  <si>
+    <t>P09238</t>
+  </si>
+  <si>
+    <t>CXCL1</t>
+  </si>
+  <si>
+    <t>P09341</t>
+  </si>
+  <si>
+    <t>CSF.1</t>
+  </si>
+  <si>
+    <t>P09603</t>
+  </si>
+  <si>
+    <t>IL.8</t>
+  </si>
+  <si>
+    <t>P10145</t>
+  </si>
+  <si>
+    <t>MIP.1.alpha</t>
+  </si>
+  <si>
+    <t>P10147</t>
+  </si>
+  <si>
+    <t>IL.7</t>
+  </si>
+  <si>
+    <t>P13232</t>
+  </si>
+  <si>
+    <t>CCL4</t>
+  </si>
+  <si>
+    <t>P13236</t>
+  </si>
+  <si>
+    <t>MCP.1</t>
+  </si>
+  <si>
+    <t>P13500</t>
+  </si>
+  <si>
+    <t>OSM</t>
+  </si>
+  <si>
+    <t>P13725</t>
+  </si>
+  <si>
+    <t>HGF</t>
+  </si>
+  <si>
+    <t>P14210</t>
+  </si>
+  <si>
+    <t>IL.2RB</t>
+  </si>
+  <si>
+    <t>P14784</t>
+  </si>
+  <si>
+    <t>LIF</t>
+  </si>
+  <si>
+    <t>P15018</t>
+  </si>
+  <si>
+    <t>VEGF.A</t>
+  </si>
+  <si>
+    <t>P15692</t>
+  </si>
+  <si>
+    <t>NT.3</t>
+  </si>
+  <si>
+    <t>P20783</t>
+  </si>
+  <si>
+    <t>SCF</t>
+  </si>
+  <si>
+    <t>P21583</t>
+  </si>
+  <si>
+    <t>IL.10</t>
+  </si>
+  <si>
+    <t>P22301</t>
+  </si>
+  <si>
+    <t>BDNF</t>
+  </si>
+  <si>
+    <t>P23560</t>
+  </si>
+  <si>
+    <t>CD40</t>
+  </si>
+  <si>
+    <t>P25942</t>
+  </si>
+  <si>
+    <t>CST5</t>
+  </si>
+  <si>
+    <t>P28325</t>
+  </si>
+  <si>
+    <t>IL.12B</t>
+  </si>
+  <si>
+    <t>P29460</t>
+  </si>
+  <si>
+    <t>IL.13</t>
+  </si>
+  <si>
+    <t>P35225</t>
+  </si>
+  <si>
+    <t>GDNF</t>
+  </si>
+  <si>
+    <t>P39905</t>
+  </si>
+  <si>
+    <t>LIF.R</t>
+  </si>
+  <si>
+    <t>P42702</t>
+  </si>
+  <si>
+    <t>CXCL5</t>
+  </si>
+  <si>
+    <t>P42830</t>
+  </si>
+  <si>
+    <t>Flt3L</t>
+  </si>
+  <si>
+    <t>P49771</t>
+  </si>
+  <si>
+    <t>ST1A1</t>
+  </si>
+  <si>
+    <t>P50225</t>
+  </si>
+  <si>
+    <t>TRAIL</t>
+  </si>
+  <si>
+    <t>P50591</t>
+  </si>
+  <si>
+    <t>CCL11</t>
+  </si>
+  <si>
+    <t>P51671</t>
+  </si>
+  <si>
+    <t>CCL23</t>
+  </si>
+  <si>
+    <t>P55773</t>
+  </si>
+  <si>
+    <t>IL.2</t>
+  </si>
+  <si>
+    <t>P60568</t>
+  </si>
+  <si>
+    <t>CX3CL1</t>
+  </si>
+  <si>
+    <t>P78423</t>
+  </si>
+  <si>
+    <t>CCL20</t>
+  </si>
+  <si>
+    <t>P78556</t>
+  </si>
+  <si>
+    <t>MCP.2</t>
+  </si>
+  <si>
+    <t>P80075</t>
+  </si>
+  <si>
+    <t>MCP.3</t>
+  </si>
+  <si>
+    <t>P80098</t>
+  </si>
+  <si>
+    <t>CXCL6</t>
+  </si>
+  <si>
+    <t>P80162</t>
+  </si>
+  <si>
+    <t>EN.RAGE</t>
+  </si>
+  <si>
+    <t>P80511</t>
+  </si>
+  <si>
+    <t>TNFRSF9</t>
+  </si>
+  <si>
+    <t>Q07011</t>
+  </si>
+  <si>
+    <t>CXCL9</t>
+  </si>
+  <si>
+    <t>Q07325</t>
+  </si>
+  <si>
+    <t>IL.10RB</t>
+  </si>
+  <si>
+    <t>Q08334</t>
+  </si>
+  <si>
+    <t>IL.24</t>
+  </si>
+  <si>
+    <t>Q13007</t>
+  </si>
+  <si>
+    <t>IL.15RA</t>
+  </si>
+  <si>
+    <t>Q13261</t>
+  </si>
+  <si>
+    <t>SLAMF1</t>
+  </si>
+  <si>
+    <t>Q13291</t>
+  </si>
+  <si>
+    <t>IL.18R1</t>
+  </si>
+  <si>
+    <t>Q13478</t>
+  </si>
+  <si>
+    <t>4E.BP1</t>
+  </si>
+  <si>
+    <t>Q13541</t>
+  </si>
+  <si>
+    <t>IL.10RA</t>
+  </si>
+  <si>
+    <t>Q13651</t>
+  </si>
+  <si>
+    <t>IL.18</t>
+  </si>
+  <si>
+    <t>Q14116</t>
+  </si>
+  <si>
+    <t>CASP.8</t>
+  </si>
+  <si>
+    <t>Q14790</t>
+  </si>
+  <si>
+    <t>IL.17A</t>
+  </si>
+  <si>
+    <t>Q16552</t>
+  </si>
+  <si>
+    <t>ARTN</t>
+  </si>
+  <si>
+    <t>Q5T4W7</t>
+  </si>
+  <si>
+    <t>SIRT2</t>
+  </si>
+  <si>
+    <t>Q8IXJ6</t>
+  </si>
+  <si>
+    <t>IL.22.RA1</t>
+  </si>
+  <si>
+    <t>Q8N6P7</t>
+  </si>
+  <si>
+    <t>FGF.5</t>
+  </si>
+  <si>
+    <t>Q8NF90</t>
+  </si>
+  <si>
+    <t>DNER</t>
+  </si>
+  <si>
+    <t>Q8NFT8</t>
+  </si>
+  <si>
+    <t>CD6</t>
+  </si>
+  <si>
+    <t>Q8WWJ7</t>
+  </si>
+  <si>
+    <t>TSLP</t>
+  </si>
+  <si>
+    <t>Q969D9</t>
+  </si>
+  <si>
+    <t>MCP.4</t>
+  </si>
+  <si>
+    <t>Q99616</t>
+  </si>
+  <si>
+    <t>CCL19</t>
+  </si>
+  <si>
+    <t>Q99731</t>
+  </si>
+  <si>
+    <t>NRTN</t>
+  </si>
+  <si>
+    <t>Q99748</t>
+  </si>
+  <si>
+    <t>CD244</t>
+  </si>
+  <si>
+    <t>Q9BZW8</t>
+  </si>
+  <si>
+    <t>FGF.23</t>
+  </si>
+  <si>
+    <t>Q9GZV9</t>
+  </si>
+  <si>
+    <t>CDCP1</t>
+  </si>
+  <si>
+    <t>Q9H5V8</t>
+  </si>
+  <si>
+    <t>CCL28</t>
+  </si>
+  <si>
+    <t>Q9NRJ3</t>
+  </si>
+  <si>
+    <t>FGF.21</t>
+  </si>
+  <si>
+    <t>Q9NSA1</t>
+  </si>
+  <si>
+    <t>IL.20</t>
+  </si>
+  <si>
+    <t>Q9NYY1</t>
+  </si>
+  <si>
+    <t>PD.L1</t>
+  </si>
+  <si>
+    <t>Q9NZQ7</t>
+  </si>
+  <si>
+    <t>IL.17C</t>
+  </si>
+  <si>
+    <t>Q9P0M4</t>
+  </si>
+  <si>
+    <t>IL.20RA</t>
+  </si>
+  <si>
+    <t>Q9UHF4</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N_lod</t>
+  </si>
+  <si>
+    <t>P30203</t>
+  </si>
+  <si>
+    <t>P12034</t>
+  </si>
+  <si>
+    <t>Alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,29 +791,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="39"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="39"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -260,31 +805,76 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color indexed="39"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -302,12 +892,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,8 +902,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -581,210 +1171,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1061,423 +1606,1136 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="1" max="1" width="25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="60" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13" t="s">
+      <c r="C8" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="36">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22" t="s">
+      <c r="C11" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13" t="s">
+      <c r="C12" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13" t="s">
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="30" t="s">
+      <c r="C16" s="36"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="32"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33" t="s">
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:3" ht="24">
-      <c r="A20" s="7" t="s">
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" ht="24">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13" t="s">
+      <c r="C20" s="40"/>
+    </row>
+    <row r="21" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" ht="24">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="37" t="s">
+      <c r="C22" s="41"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="38" t="s">
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="C24" s="43"/>
+    </row>
+    <row r="25" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="39"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="38" t="s">
+      <c r="C25" s="43"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="39"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="38" t="s">
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="39"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="38" t="s">
+      <c r="C27" s="43"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="43"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="39"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="38" t="s">
+      <c r="C29" s="43"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="39"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="40"/>
-    </row>
-    <row r="32" spans="1:3" ht="24">
-      <c r="A32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="13" t="s">
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="41"/>
-    </row>
-    <row r="33" spans="1:3" ht="24">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13" t="s">
+      <c r="C32" s="45"/>
+    </row>
+    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="24">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13" t="s">
+      <c r="C33" s="46"/>
+    </row>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="41"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13" t="s">
+      <c r="C34" s="45"/>
+    </row>
+    <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="41"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13" t="s">
+      <c r="C35" s="45"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13" t="s">
+      <c r="C36" s="46"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="13" t="s">
+      <c r="C37" s="46"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="44" t="s">
+      <c r="C38" s="46"/>
+    </row>
+    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="45"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
+      <c r="C39" s="47"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="46"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A41" s="48" t="s">
+      <c r="C40" s="48"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="49"/>
     </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A42" s="51" t="s">
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="50"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="53"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="54"/>
-    </row>
-    <row r="46" spans="1:3" ht="36">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="42"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="29"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="24"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="47"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="55"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="19"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/SCALLOP-INF1.xlsx
+++ b/doc/SCALLOP-INF1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="468" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4272" yWindow="468" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="3" r:id="rId1"/>
@@ -138,18 +138,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>Trait transformation FASTING GLUCOSE</t>
-  </si>
-  <si>
-    <t>Trait transformation FASTING INSULIN</t>
-  </si>
-  <si>
-    <t>Trait transformation 2 HOUR GLUCOSE</t>
-  </si>
-  <si>
-    <t>Trait transformation HBA1C</t>
-  </si>
-  <si>
     <t>Adjustments</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>DATA ANALYSIS (Example)</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
@@ -769,6 +754,22 @@
   </si>
   <si>
     <t>Alias</t>
+  </si>
+  <si>
+    <t>The INTERVAL study is a prospective cohort study of approximately 50,000 participants of mostly European ancestry, nested within a pragmatic randomized trial of blood donors. Between 2012 and 2014, blood donors 18 years and older were consented and recruited from 25 NHSBT (National Health Service Blood and Transplant) static donor centers across England. Participants are predominantly healthy individuals since people with major disease (myocardial infarction, stroke, cancer etc.) are ineligible for donation, as are those who report being unwell or having had recent illness or infection. Participants completed online questionnaires containing basic lifestyle and health-related information, including self-reported height and weight, ethnicity, current smoking status, alcohol consumption, doctor-diagnosed anemia, use of medications (hormone replacement therapy, iron supplements) and menopausal status. The INTERVAL study was approved by the Cambridge (East) Research Ethics Committee and UK Biobank was approved by the North West Multi-center Research Ethics Committee (MREC). Informed consent was obtained from all participants.</t>
+  </si>
+  <si>
+    <t>http://www.intervalstudy.org.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID:25230735
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trait transformation </t>
+  </si>
+  <si>
+    <t>DATA ANALYSIS</t>
   </si>
 </sst>
 </file>
@@ -865,15 +866,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1316,10 +1316,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,6 +1327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1614,15 +1614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="22" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="60" style="51" customWidth="1"/>
+    <col min="3" max="3" width="60" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1645,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1684,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1713,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
@@ -1722,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1860,89 +1862,75 @@
       <c r="B31" s="11"/>
       <c r="C31" s="44"/>
     </row>
-    <row r="32" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="C32" s="45"/>
     </row>
-    <row r="33" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="46"/>
     </row>
-    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="46"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="45"/>
-    </row>
-    <row r="35" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="46"/>
+    </row>
+    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="45"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="46"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+      <c r="C36" s="52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="46"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="9" t="s">
+      <c r="C37" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="281.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="46"/>
-    </row>
-    <row r="39" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="47"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="48"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="49"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="50"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1950,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1961,777 +1949,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J78" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J80" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SCALLOP-INF1.xlsx
+++ b/doc/SCALLOP-INF1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="245">
   <si>
     <t>INTERVAL</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>Sample size</t>
-  </si>
-  <si>
     <t>STUDY INFORMATION</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>European descent</t>
   </si>
   <si>
-    <t>year of birth</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -93,15 +87,9 @@
     <t>Genotyping Array</t>
   </si>
   <si>
-    <t>Builder</t>
-  </si>
-  <si>
     <t>Genotyping calling algorithm</t>
   </si>
   <si>
-    <t>Overlap with other chips</t>
-  </si>
-  <si>
     <t>SNP QC</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>Imputation software and version</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
     <t>inclusion criteria</t>
   </si>
   <si>
@@ -144,16 +129,7 @@
     <t>Analysis method</t>
   </si>
   <si>
-    <t>Software for analysis</t>
-  </si>
-  <si>
     <t>REFERENCES</t>
-  </si>
-  <si>
-    <t>Reference study description (PMID)</t>
-  </si>
-  <si>
-    <t>Study link/ website</t>
   </si>
   <si>
     <t>Study desctiption</t>
@@ -770,6 +746,24 @@
   </si>
   <si>
     <t>DATA ANALYSIS</t>
+  </si>
+  <si>
+    <t>Sample size (male/female)</t>
+  </si>
+  <si>
+    <t>age (mean/sd)</t>
+  </si>
+  <si>
+    <t>Reference panel</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Study description (PMID)</t>
+  </si>
+  <si>
+    <t>Study website</t>
   </si>
 </sst>
 </file>
@@ -877,18 +871,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -909,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1138,15 +1126,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1185,69 +1164,66 @@
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,31 +1232,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,22 +1268,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1326,8 +1299,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1614,30 +1593,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="22" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="60" style="50" customWidth="1"/>
+    <col min="3" max="3" width="60" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="23"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1646,287 +1625,275 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>44</v>
+      <c r="C3" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="51"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>45</v>
+        <v>240</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="34"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="38"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="39"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="40"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="41"/>
+    </row>
+    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="41"/>
-    </row>
-    <row r="22" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="41"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="43"/>
-    </row>
-    <row r="25" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="C24" s="41"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="43"/>
+        <v>241</v>
+      </c>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="43"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="43"/>
+        <v>29</v>
+      </c>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="43"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="18" t="s">
+      <c r="B28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="44"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="281.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="43"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="18" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="43"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="44"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="46"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="46"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="46"/>
-    </row>
-    <row r="36" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="281.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="49"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,777 +1916,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>47</v>
+      <c r="A1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J78" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J80" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
